--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value515.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value515.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.063206216711949</v>
+        <v>1.255029439926147</v>
       </c>
       <c r="B1">
-        <v>1.832142946993919</v>
+        <v>2.539771795272827</v>
       </c>
       <c r="C1">
-        <v>2.484597090562177</v>
+        <v>3.762845993041992</v>
       </c>
       <c r="D1">
-        <v>2.729814104701743</v>
+        <v>2.725200891494751</v>
       </c>
       <c r="E1">
-        <v>1.006899699088629</v>
+        <v>1.072168111801147</v>
       </c>
     </row>
   </sheetData>
